--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_22_2.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_22_2.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2403515.863095421</v>
+        <v>-2406098.895165149</v>
       </c>
     </row>
     <row r="7">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>15895947.52705645</v>
+        <v>15895947.52705644</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>391.5465416254786</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -716,16 +716,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>264.8621687585366</v>
       </c>
     </row>
     <row r="3">
@@ -738,7 +738,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883156</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -826,16 +826,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>54.6020430621757</v>
+        <v>30.25382576108454</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,19 +865,19 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -905,10 +905,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>129.260817420948</v>
       </c>
       <c r="G5" t="n">
-        <v>151.2796191729007</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -944,16 +944,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -1099,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>57.68750238080805</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>111.9578321820358</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -1117,7 +1117,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1142,16 +1142,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,16 +1184,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>146.5990350281158</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>325.9262959628992</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1303,13 +1303,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>130.3863236130828</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>285.5252819069323</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1424,7 +1424,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881276</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1525,16 +1525,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1543,7 +1543,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>36.2107047647193</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -1576,16 +1576,16 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>105.6507867899565</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.1376433238313</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444134</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1780,10 +1780,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,7 +1816,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>65.06198119183716</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>162.8435308896554</v>
       </c>
     </row>
     <row r="17">
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2005,19 +2005,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>108.2950343703274</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>55.52079624060374</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2239,7 +2239,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2248,16 +2248,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2293,19 +2293,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>241.4474687473722</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>178.2798710842933</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2482,19 +2482,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>33.82351723687661</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>140.2947128462238</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856548</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>39.56681219551486</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2536,10 +2536,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2555,7 +2555,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>171.0385136149751</v>
+        <v>171.0385136149753</v>
       </c>
       <c r="C28" t="n">
-        <v>158.4533545316657</v>
+        <v>158.4533545316659</v>
       </c>
       <c r="D28" t="n">
-        <v>139.8220064512502</v>
+        <v>139.8220064512504</v>
       </c>
       <c r="E28" t="n">
-        <v>137.640496079607</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>136.6275814559691</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>156.7306717253067</v>
+        <v>156.7306717253069</v>
       </c>
       <c r="H28" t="n">
-        <v>131.5012462792617</v>
+        <v>36.44717761624504</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>72.47236975160357</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>57.58178014315971</v>
       </c>
       <c r="S28" t="n">
-        <v>172.2328194346824</v>
+        <v>172.2328194346826</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>208.6119837603263</v>
       </c>
       <c r="U28" t="n">
-        <v>246.7349952787816</v>
+        <v>277.3910078222822</v>
       </c>
       <c r="V28" t="n">
-        <v>243.3441767568658</v>
+        <v>243.344176756866</v>
       </c>
       <c r="W28" t="n">
-        <v>277.7295317696289</v>
+        <v>277.729531769629</v>
       </c>
       <c r="X28" t="n">
-        <v>216.916188822075</v>
+        <v>216.9161888220752</v>
       </c>
       <c r="Y28" t="n">
-        <v>209.7911867851326</v>
+        <v>209.7911867851328</v>
       </c>
     </row>
     <row r="29">
@@ -2956,7 +2956,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F31" t="n">
         <v>121.1364005308915</v>
@@ -2965,10 +2965,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808248</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U31" t="n">
         <v>261.8998268972044</v>
@@ -3044,7 +3044,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3187,25 +3187,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808102</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
@@ -3250,7 +3250,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y34" t="n">
         <v>194.3000058600551</v>
@@ -3266,7 +3266,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3360,7 +3360,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S37" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V37" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y37" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808197</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3791,7 +3791,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3904,7 +3904,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3916,7 +3916,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4304,31 +4304,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1514.348043559526</v>
+        <v>1934.181533884357</v>
       </c>
       <c r="C2" t="n">
-        <v>1145.385526619114</v>
+        <v>1565.219016943946</v>
       </c>
       <c r="D2" t="n">
-        <v>1145.385526619114</v>
+        <v>1206.953318337195</v>
       </c>
       <c r="E2" t="n">
-        <v>759.5972740208695</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="F2" t="n">
-        <v>364.0957168234164</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>364.0957168234164</v>
+        <v>406.0926155839473</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218357</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218357</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
         <v>589.2106210810553</v>
@@ -4340,40 +4340,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U2" t="n">
-        <v>2961.784676410102</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V2" t="n">
-        <v>2630.721789066531</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="W2" t="n">
-        <v>2277.953133796417</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="X2" t="n">
-        <v>1904.487375535337</v>
+        <v>2588.318918149022</v>
       </c>
       <c r="Y2" t="n">
-        <v>1514.348043559526</v>
+        <v>2320.781373948479</v>
       </c>
     </row>
     <row r="3">
@@ -4383,37 +4383,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4440,7 +4440,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4449,10 +4449,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>218.9913724645205</v>
+        <v>410.9915598002981</v>
       </c>
       <c r="C4" t="n">
-        <v>218.9913724645205</v>
+        <v>410.9915598002981</v>
       </c>
       <c r="D4" t="n">
-        <v>218.9913724645205</v>
+        <v>410.9915598002981</v>
       </c>
       <c r="E4" t="n">
-        <v>218.9913724645205</v>
+        <v>410.9915598002981</v>
       </c>
       <c r="F4" t="n">
-        <v>163.8377936138381</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G4" t="n">
-        <v>163.8377936138381</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K4" t="n">
         <v>176.6457242372932</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588482</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886955</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596439</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181847</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181847</v>
       </c>
       <c r="S4" t="n">
-        <v>729.2011216450112</v>
+        <v>920.8870058181847</v>
       </c>
       <c r="T4" t="n">
-        <v>729.2011216450112</v>
+        <v>920.8870058181847</v>
       </c>
       <c r="U4" t="n">
-        <v>729.2011216450112</v>
+        <v>631.7841389438282</v>
       </c>
       <c r="V4" t="n">
-        <v>729.2011216450112</v>
+        <v>631.7841389438282</v>
       </c>
       <c r="W4" t="n">
-        <v>439.7839516080506</v>
+        <v>631.7841389438282</v>
       </c>
       <c r="X4" t="n">
-        <v>439.7839516080506</v>
+        <v>631.7841389438282</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.9913724645205</v>
+        <v>410.9915598002981</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1381.278680221568</v>
+        <v>1363.124011696102</v>
       </c>
       <c r="C5" t="n">
-        <v>1012.316163281156</v>
+        <v>994.1614947556907</v>
       </c>
       <c r="D5" t="n">
-        <v>654.0504646744055</v>
+        <v>635.8957961489402</v>
       </c>
       <c r="E5" t="n">
-        <v>268.2622120761612</v>
+        <v>250.107543550696</v>
       </c>
       <c r="F5" t="n">
-        <v>261.3167113269578</v>
+        <v>119.5410613073142</v>
       </c>
       <c r="G5" t="n">
         <v>108.5090151927147</v>
@@ -4562,55 +4562,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136266</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V5" t="n">
-        <v>2884.252265792695</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="W5" t="n">
-        <v>2531.483610522581</v>
+        <v>2513.328941997116</v>
       </c>
       <c r="X5" t="n">
-        <v>2158.017852261501</v>
+        <v>2139.863183736036</v>
       </c>
       <c r="Y5" t="n">
-        <v>1767.878520285689</v>
+        <v>1749.723851760224</v>
       </c>
     </row>
     <row r="6">
@@ -4638,7 +4638,7 @@
         <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
@@ -4650,7 +4650,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158133</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>212.7293032143256</v>
+        <v>699.4849621798493</v>
       </c>
       <c r="C7" t="n">
-        <v>212.7293032143256</v>
+        <v>530.5487792519424</v>
       </c>
       <c r="D7" t="n">
-        <v>212.7293032143256</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="E7" t="n">
-        <v>212.7293032143256</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="F7" t="n">
-        <v>212.7293032143256</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1869.024343663434</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1677.33845949026</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1455.571844059787</v>
+        <v>1532.689487297053</v>
       </c>
       <c r="U7" t="n">
-        <v>1166.46897718543</v>
+        <v>1243.586620422697</v>
       </c>
       <c r="V7" t="n">
-        <v>911.7844889795433</v>
+        <v>988.9021322168098</v>
       </c>
       <c r="W7" t="n">
-        <v>622.3673189425826</v>
+        <v>699.4849621798493</v>
       </c>
       <c r="X7" t="n">
-        <v>394.3777680445653</v>
+        <v>699.4849621798493</v>
       </c>
       <c r="Y7" t="n">
-        <v>394.3777680445653</v>
+        <v>699.4849621798493</v>
       </c>
     </row>
     <row r="8">
@@ -4778,52 +4778,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1619.798686923957</v>
+        <v>1151.298377994912</v>
       </c>
       <c r="C8" t="n">
-        <v>1250.836169983545</v>
+        <v>782.3358610545008</v>
       </c>
       <c r="D8" t="n">
-        <v>892.5704713767946</v>
+        <v>424.0701624477504</v>
       </c>
       <c r="E8" t="n">
-        <v>892.5704713767946</v>
+        <v>424.0701624477504</v>
       </c>
       <c r="F8" t="n">
-        <v>481.5845665871869</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218343</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4832,22 +4832,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3067.235319774533</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3067.235319774533</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V8" t="n">
-        <v>2736.172432430963</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W8" t="n">
-        <v>2383.403777160848</v>
+        <v>2301.503308295926</v>
       </c>
       <c r="X8" t="n">
-        <v>2009.938018899768</v>
+        <v>1928.037550034846</v>
       </c>
       <c r="Y8" t="n">
-        <v>1619.798686923957</v>
+        <v>1537.898218059034</v>
       </c>
     </row>
     <row r="9">
@@ -4872,10 +4872,10 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4884,19 +4884,19 @@
         <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>810.3754302374108</v>
+        <v>628.5472171493652</v>
       </c>
       <c r="C10" t="n">
-        <v>641.4392473095039</v>
+        <v>628.5472171493652</v>
       </c>
       <c r="D10" t="n">
-        <v>491.3226078971682</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="E10" t="n">
-        <v>491.3226078971682</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="F10" t="n">
-        <v>344.4326603992578</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143257</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1735.608663915319</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T10" t="n">
-        <v>1513.842048484845</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U10" t="n">
-        <v>1513.842048484845</v>
+        <v>1326.59460854119</v>
       </c>
       <c r="V10" t="n">
-        <v>1259.157560278958</v>
+        <v>1326.59460854119</v>
       </c>
       <c r="W10" t="n">
-        <v>1259.157560278958</v>
+        <v>1038.185232877622</v>
       </c>
       <c r="X10" t="n">
-        <v>1031.168009380941</v>
+        <v>810.195681979605</v>
       </c>
       <c r="Y10" t="n">
-        <v>810.3754302374108</v>
+        <v>810.195681979605</v>
       </c>
     </row>
     <row r="11">
@@ -5030,31 +5030,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5066,10 +5066,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
@@ -5112,31 +5112,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>2148.04349261611</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>695.502065570308</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C13" t="n">
-        <v>526.5658826424011</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D13" t="n">
-        <v>526.565882642401</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E13" t="n">
-        <v>526.565882642401</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
-        <v>379.6759351444907</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>212.4798358593706</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648816</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611855</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138381</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.502065570308</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="14">
@@ -5267,28 +5267,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5352,28 +5352,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1074.481071167373</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>849.3843576263199</v>
+        <v>789.7592298206043</v>
       </c>
       <c r="C16" t="n">
-        <v>680.448174698413</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D16" t="n">
-        <v>530.3315352860773</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E16" t="n">
-        <v>382.4184417036841</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F16" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782931</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038313</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797713</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910806</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570814</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279799</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853358</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580258</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.91737983266</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487564</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2131.343372566517</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U16" t="n">
-        <v>1842.268145910715</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V16" t="n">
-        <v>1587.583657704828</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W16" t="n">
-        <v>1298.166487667867</v>
+        <v>1363.885660588918</v>
       </c>
       <c r="X16" t="n">
-        <v>1070.17693676985</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y16" t="n">
-        <v>849.3843576263199</v>
+        <v>971.4076946508441</v>
       </c>
     </row>
     <row r="17">
@@ -5507,22 +5507,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111725</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075817</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355938</v>
@@ -5531,10 +5531,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>245.2306927803938</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>740.5562989961526</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1337.934786622704</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N18" t="n">
-        <v>1965.532750177311</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O18" t="n">
-        <v>2092.798483612593</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.853600740072</v>
+        <v>763.7541388327641</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121651</v>
+        <v>594.8179559048572</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121651</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E19" t="n">
-        <v>235.5284942057738</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="F19" t="n">
-        <v>235.5284942057738</v>
+        <v>149.8982754122181</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5674,49 +5674,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797746</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703117</v>
+        <v>945.4026036630038</v>
       </c>
     </row>
     <row r="20">
@@ -5741,19 +5741,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5826,16 +5826,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>139.234765840794</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>139.234765840794</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>634.5603720565526</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
         <v>1231.938859683105</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263527</v>
+        <v>559.0424953278205</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356196</v>
+        <v>559.0424953278205</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232839</v>
+        <v>408.9258559154848</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408908</v>
+        <v>261.0127623330918</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429804</v>
+        <v>261.0127623330918</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5941,19 +5941,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1733.574748442455</v>
       </c>
       <c r="V22" t="n">
-        <v>1688.385853854706</v>
+        <v>1478.890260236568</v>
       </c>
       <c r="W22" t="n">
-        <v>1508.305175991783</v>
+        <v>1189.473090199608</v>
       </c>
       <c r="X22" t="n">
-        <v>1280.315625093766</v>
+        <v>961.4835393015903</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.315625093766</v>
+        <v>740.6909601580602</v>
       </c>
     </row>
     <row r="23">
@@ -5987,22 +5987,22 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6069,25 +6069,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1337.934786622704</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N24" t="n">
-        <v>1965.532750177311</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O24" t="n">
-        <v>2516.421633107662</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>984.9192356072712</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C25" t="n">
-        <v>815.9830526793643</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D25" t="n">
-        <v>665.8664132670285</v>
+        <v>632.7243904253735</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408905</v>
+        <v>484.81129684298</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429801</v>
+        <v>484.81129684298</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>317.61519755786</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6151,16 +6151,16 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2406.996606615094</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2406.996606615094</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2187.395141638035</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1898.319914982233</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1643.635426776346</v>
       </c>
       <c r="W25" t="n">
-        <v>1433.701365648819</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="X25" t="n">
-        <v>1205.711814750801</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y25" t="n">
-        <v>984.9192356072712</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="26">
@@ -6215,16 +6215,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075809</v>
@@ -6233,13 +6233,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6300,25 +6300,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1186.520756890282</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N27" t="n">
-        <v>1814.118720444889</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3137.512533749965</v>
+        <v>663.43846110461</v>
       </c>
       <c r="C28" t="n">
-        <v>2977.458640283636</v>
+        <v>503.3845676382809</v>
       </c>
       <c r="D28" t="n">
-        <v>2836.224290332878</v>
+        <v>362.1502176875229</v>
       </c>
       <c r="E28" t="n">
-        <v>2697.193486212063</v>
+        <v>362.1502176875229</v>
       </c>
       <c r="F28" t="n">
-        <v>2559.18582817573</v>
+        <v>362.1502176875229</v>
       </c>
       <c r="G28" t="n">
-        <v>2400.872018352188</v>
+        <v>203.8364078639806</v>
       </c>
       <c r="H28" t="n">
-        <v>2268.042476655964</v>
+        <v>167.0210769384805</v>
       </c>
       <c r="I28" t="n">
-        <v>2268.042476655964</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>2356.984026987581</v>
+        <v>182.7582133795882</v>
       </c>
       <c r="K28" t="n">
-        <v>2627.378821414412</v>
+        <v>453.1530078064191</v>
       </c>
       <c r="L28" t="n">
-        <v>3026.482947491645</v>
+        <v>852.2571338836515</v>
       </c>
       <c r="M28" t="n">
-        <v>3457.198182123971</v>
+        <v>1282.972368515979</v>
       </c>
       <c r="N28" t="n">
-        <v>3883.313585685273</v>
+        <v>1709.08777207728</v>
       </c>
       <c r="O28" t="n">
-        <v>4261.54839829555</v>
+        <v>2087.322584687557</v>
       </c>
       <c r="P28" t="n">
-        <v>4562.929385770401</v>
+        <v>2388.703572162408</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2516.607338790599</v>
       </c>
       <c r="R28" t="n">
-        <v>4690.833152398593</v>
+        <v>2458.44392450458</v>
       </c>
       <c r="S28" t="n">
-        <v>4516.860607515076</v>
+        <v>2284.471379621062</v>
       </c>
       <c r="T28" t="n">
-        <v>4516.860607515076</v>
+        <v>2073.752204105581</v>
       </c>
       <c r="U28" t="n">
-        <v>4267.63333955671</v>
+        <v>1793.559266911356</v>
       </c>
       <c r="V28" t="n">
-        <v>4021.831140812401</v>
+        <v>1547.757068167047</v>
       </c>
       <c r="W28" t="n">
-        <v>3741.296260237018</v>
+        <v>1267.222187591664</v>
       </c>
       <c r="X28" t="n">
-        <v>3522.188998800579</v>
+        <v>1048.114926155224</v>
       </c>
       <c r="Y28" t="n">
-        <v>3310.278709118626</v>
+        <v>836.204636473272</v>
       </c>
     </row>
     <row r="29">
@@ -6437,46 +6437,46 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6540,28 +6540,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>172.349019141113</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>506.2737913123336</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>506.2737913123336</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1103.652278938886</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N30" t="n">
-        <v>1731.250242493492</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O30" t="n">
-        <v>2283.159972732779</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G31" t="n">
         <v>268.5553036345476</v>
@@ -6616,16 +6616,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K31" t="n">
-        <v>483.8255460380726</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L31" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M31" t="n">
         <v>1344.317444979286</v>
@@ -6649,19 +6649,19 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T31" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V31" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W31" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y31" t="n">
         <v>1084.076049400516</v>
@@ -6680,16 +6680,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6698,19 +6698,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>139.234765840794</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>139.234765840794</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>634.5603720565526</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1231.938859683105</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1859.536823237711</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F34" t="n">
         <v>411.2214559580113</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
@@ -6859,7 +6859,7 @@
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L34" t="n">
         <v>898.2659412311323</v>
@@ -6877,19 +6877,19 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T34" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V34" t="n">
         <v>1748.685508594055</v>
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
         <v>1948.813509611463</v>
@@ -6929,16 +6929,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332386</v>
@@ -6950,7 +6950,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6962,25 +6962,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J36" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1337.934786622704</v>
+        <v>1373.553594266882</v>
       </c>
       <c r="N36" t="n">
-        <v>1965.532750177311</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
-        <v>1965.532750177311</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2389.155899672379</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,46 +7069,46 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150028</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942659</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580119</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345482</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
         <v>898.2659412311323</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N37" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P37" t="n">
         <v>2496.057455973196</v>
@@ -7117,7 +7117,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S37" t="n">
         <v>2438.456847547834</v>
@@ -7129,7 +7129,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W37" t="n">
         <v>1483.798285518751</v>
@@ -7160,7 +7160,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,13 +7169,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7187,7 +7187,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C40" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E40" t="n">
         <v>533.5814564942657</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580117</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>268.555303634548</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
@@ -7330,16 +7330,16 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
         <v>483.825546038073</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N40" t="n">
         <v>1785.769117656414</v>
@@ -7348,10 +7348,10 @@
         <v>2179.340199382519</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
         <v>2596.781734931274</v>
@@ -7400,28 +7400,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7430,13 +7430,13 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
         <v>4405.252601474784</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3081.170977615665</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C42" t="n">
-        <v>2906.717948334538</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D42" t="n">
-        <v>2757.783538673287</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>2598.546083667831</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
-        <v>2452.011525694716</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G42" t="n">
-        <v>2316.252859740624</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>2231.58852738579</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>2233.355914590557</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>2383.002557118212</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>2716.927329289433</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>3212.252935505192</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>3809.631423131743</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>3869.022106831311</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>4420.931837070598</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>4420.931837070598</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>4654.19349744548</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S42" t="n">
-        <v>4572.622366301205</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T42" t="n">
-        <v>4382.415660022979</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U42" t="n">
-        <v>4154.387578566164</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V42" t="n">
-        <v>3919.235470334421</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W42" t="n">
-        <v>3664.99811360622</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X42" t="n">
-        <v>3457.146613400687</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y42" t="n">
-        <v>3249.386314635733</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="43">
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.957531531932</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656814</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E43" t="n">
-        <v>533.581456494265</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580109</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G43" t="n">
         <v>268.5553036345476</v>
@@ -7564,16 +7564,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380725</v>
+        <v>483.8255460380726</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311319</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7585,34 +7585,34 @@
         <v>2179.340199382518</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973195</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
         <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="44">
@@ -7649,7 +7649,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>923.0670414349511</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1550.665004989558</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2102.574735228845</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2526.197884723913</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2526.197884723913</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319319</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656812</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E46" t="n">
-        <v>533.581456494265</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F46" t="n">
-        <v>411.221455958011</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7804,13 +7804,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K46" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7828,7 +7828,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
         <v>2438.456847547834</v>
@@ -7837,7 +7837,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
@@ -7849,7 +7849,7 @@
         <v>1280.33868158239</v>
       </c>
       <c r="Y46" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
   </sheetData>
@@ -22544,28 +22544,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>15.32950411623284</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22604,16 +22604,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>121.375769897517</v>
       </c>
     </row>
     <row r="3">
@@ -22714,16 +22714,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>90.81900496075555</v>
+        <v>115.1672222618467</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22753,19 +22753,19 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -23413,16 +23413,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23431,7 +23431,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>104.0840080815046</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23464,13 +23464,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>75.37549921168812</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,7 +23704,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>152.3434691354511</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>55.74112246243936</v>
       </c>
     </row>
     <row r="17">
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>38.13892827624174</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>110.0033420516651</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24127,7 +24127,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24136,16 +24136,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24181,19 +24181,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>44.73700564187195</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>108.2431272522977</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24370,10 +24370,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>112.6104454096926</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>26.80843451460677</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016445</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24424,10 +24424,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24607,19 +24607,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>137.6404960796072</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>136.6275814559693</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>95.05406866301689</v>
       </c>
       <c r="I28" t="n">
-        <v>72.47236975160335</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,16 +24646,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>57.58178014315909</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>208.6119837603261</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>30.65601254350037</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>-5.044853423896711e-13</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.805489753489383e-13</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1394121.432434651</v>
+        <v>1394121.43243465</v>
       </c>
     </row>
     <row r="11">
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>32904.09773687494</v>
+        <v>32904.09773687493</v>
       </c>
       <c r="C2" t="n">
         <v>41052.08849321416</v>
       </c>
       <c r="D2" t="n">
-        <v>41052.08849321416</v>
+        <v>41052.08849321417</v>
       </c>
       <c r="E2" t="n">
         <v>40357.3299845003</v>
       </c>
       <c r="F2" t="n">
-        <v>40357.32998450029</v>
+        <v>40357.32998450032</v>
       </c>
       <c r="G2" t="n">
+        <v>40357.3299845003</v>
+      </c>
+      <c r="H2" t="n">
         <v>40357.32998450031</v>
       </c>
-      <c r="H2" t="n">
-        <v>40357.32998450029</v>
-      </c>
       <c r="I2" t="n">
-        <v>40357.32998450028</v>
+        <v>40357.32998450031</v>
       </c>
       <c r="J2" t="n">
-        <v>40608.90191777583</v>
+        <v>40608.90191777585</v>
       </c>
       <c r="K2" t="n">
         <v>41052.08849321419</v>
       </c>
       <c r="L2" t="n">
+        <v>41052.0884932142</v>
+      </c>
+      <c r="M2" t="n">
+        <v>41052.08849321417</v>
+      </c>
+      <c r="N2" t="n">
+        <v>41052.08849321415</v>
+      </c>
+      <c r="O2" t="n">
         <v>41052.08849321419</v>
-      </c>
-      <c r="M2" t="n">
-        <v>41052.08849321416</v>
-      </c>
-      <c r="N2" t="n">
-        <v>41052.08849321419</v>
-      </c>
-      <c r="O2" t="n">
-        <v>41052.0884932142</v>
       </c>
       <c r="P2" t="n">
         <v>41052.0884932142</v>
@@ -26366,13 +26366,13 @@
         <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1.469155386075727e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,28 +26384,28 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="J3" t="n">
-        <v>224565.9756508472</v>
+        <v>224565.9756508469</v>
       </c>
       <c r="K3" t="n">
-        <v>12392.94474006206</v>
+        <v>12392.94474006231</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551172</v>
+        <v>85055.02793551181</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>7034.773253569738</v>
+        <v>7034.773253569533</v>
       </c>
       <c r="P3" t="n">
-        <v>12392.94474006206</v>
+        <v>12392.9447400622</v>
       </c>
     </row>
     <row r="4">
@@ -26418,16 +26418,16 @@
         <v>584.6469890061231</v>
       </c>
       <c r="C4" t="n">
-        <v>93403.78684820632</v>
+        <v>93403.78684820631</v>
       </c>
       <c r="D4" t="n">
-        <v>93403.78684820633</v>
+        <v>93403.78684820635</v>
       </c>
       <c r="E4" t="n">
         <v>14216.75207685505</v>
       </c>
       <c r="F4" t="n">
-        <v>14216.75207685502</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="G4" t="n">
         <v>14216.75207685505</v>
@@ -26439,22 +26439,22 @@
         <v>14216.75207685505</v>
       </c>
       <c r="J4" t="n">
-        <v>17110.24080442853</v>
+        <v>17110.24080442848</v>
       </c>
       <c r="K4" t="n">
-        <v>22207.61133994853</v>
+        <v>22207.61133994852</v>
       </c>
       <c r="L4" t="n">
-        <v>22207.61133994853</v>
+        <v>22207.61133994852</v>
       </c>
       <c r="M4" t="n">
-        <v>22207.61133994853</v>
+        <v>22207.61133994859</v>
       </c>
       <c r="N4" t="n">
         <v>22207.61133994852</v>
       </c>
       <c r="O4" t="n">
-        <v>22207.61133994855</v>
+        <v>22207.61133994851</v>
       </c>
       <c r="P4" t="n">
         <v>22207.61133994852</v>
@@ -26491,7 +26491,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="J5" t="n">
-        <v>101861.7877647251</v>
+        <v>101861.787764725</v>
       </c>
       <c r="K5" t="n">
         <v>103164.1158539154</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1404359.235541117</v>
+        <v>-1404766.635078934</v>
       </c>
       <c r="C6" t="n">
-        <v>-160285.6389163855</v>
+        <v>-160285.6389163856</v>
       </c>
       <c r="D6" t="n">
         <v>-160285.6389163855</v>
       </c>
       <c r="E6" t="n">
-        <v>-400394.4137236169</v>
+        <v>-400429.1516490527</v>
       </c>
       <c r="F6" t="n">
-        <v>-74981.95191626184</v>
+        <v>-75016.68984169753</v>
       </c>
       <c r="G6" t="n">
-        <v>-74981.95191626187</v>
+        <v>-75016.68984169756</v>
       </c>
       <c r="H6" t="n">
-        <v>-74981.95191626187</v>
+        <v>-75016.68984169756</v>
       </c>
       <c r="I6" t="n">
-        <v>-74981.9519162619</v>
+        <v>-75016.68984169759</v>
       </c>
       <c r="J6" t="n">
-        <v>-302929.102302225</v>
+        <v>-302951.2616309965</v>
       </c>
       <c r="K6" t="n">
-        <v>-96712.58344071179</v>
+        <v>-96712.58344071204</v>
       </c>
       <c r="L6" t="n">
-        <v>-84319.6387006497</v>
+        <v>-84319.63870064972</v>
       </c>
       <c r="M6" t="n">
-        <v>-169374.6666361615</v>
+        <v>-169374.6666361616</v>
       </c>
       <c r="N6" t="n">
-        <v>-84319.63870064972</v>
+        <v>-84319.63870064977</v>
       </c>
       <c r="O6" t="n">
-        <v>-91354.41195421947</v>
+        <v>-91354.41195421926</v>
       </c>
       <c r="P6" t="n">
-        <v>-96712.58344071178</v>
+        <v>-96712.58344071193</v>
       </c>
     </row>
   </sheetData>
@@ -26704,28 +26704,28 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>8.793466566962161</v>
+        <v>8.793466566961973</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="N2" t="n">
+        <v>24.28464749203971</v>
+      </c>
+      <c r="O2" t="n">
+        <v>24.28464749203971</v>
+      </c>
+      <c r="P2" t="n">
         <v>24.28464749203972</v>
-      </c>
-      <c r="O2" t="n">
-        <v>24.28464749203973</v>
-      </c>
-      <c r="P2" t="n">
-        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="3">
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022924</v>
+      </c>
+      <c r="C4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="D4" t="n">
         <v>831.4014554022926</v>
-      </c>
-      <c r="C4" t="n">
-        <v>831.4014554022928</v>
-      </c>
-      <c r="D4" t="n">
-        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26926,28 +26926,28 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>8.793466566962161</v>
+        <v>8.793466566961916</v>
       </c>
       <c r="K2" t="n">
-        <v>15.49118092507757</v>
+        <v>15.49118092507774</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>8.793466566962172</v>
+        <v>8.793466566961916</v>
       </c>
       <c r="P2" t="n">
-        <v>15.49118092507758</v>
+        <v>15.49118092507775</v>
       </c>
     </row>
     <row r="3">
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27163,13 +27163,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>8.793466566962161</v>
+        <v>8.793466566961916</v>
       </c>
       <c r="P2" t="n">
-        <v>15.49118092507757</v>
+        <v>15.49118092507774</v>
       </c>
     </row>
     <row r="3">
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27625,10 +27625,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>277.6152283207634</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
-      </c>
-      <c r="G5" t="n">
-        <v>259.6421064805528</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
@@ -27664,16 +27664,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27786,7 +27786,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27819,13 +27819,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>31.24465028923928</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>107.5911170941334</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27837,7 +27837,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27862,16 +27862,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,16 +27904,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>57.31893511150437</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>23.31467275451377</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28023,13 +28023,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>35.63948464594543</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0.9977164296587375</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28144,7 +28144,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>9.848122317634988e-13</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -28305,7 +28305,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>-9.831888791845538e-13</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -29275,7 +29275,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>8.793466566962161</v>
+        <v>8.793466566961973</v>
       </c>
       <c r="C28" t="n">
-        <v>8.793466566962161</v>
+        <v>8.793466566961973</v>
       </c>
       <c r="D28" t="n">
-        <v>8.793466566962161</v>
+        <v>8.793466566961973</v>
       </c>
       <c r="E28" t="n">
-        <v>8.793466566962161</v>
+        <v>8.793466566961973</v>
       </c>
       <c r="F28" t="n">
-        <v>8.793466566962161</v>
+        <v>8.793466566961973</v>
       </c>
       <c r="G28" t="n">
-        <v>8.793466566962161</v>
+        <v>8.793466566961973</v>
       </c>
       <c r="H28" t="n">
-        <v>8.793466566962161</v>
+        <v>8.793466566961973</v>
       </c>
       <c r="I28" t="n">
-        <v>8.793466566962161</v>
+        <v>8.793466566961973</v>
       </c>
       <c r="J28" t="n">
-        <v>8.793466566962161</v>
+        <v>8.793466566961973</v>
       </c>
       <c r="K28" t="n">
-        <v>8.793466566962161</v>
+        <v>8.793466566961973</v>
       </c>
       <c r="L28" t="n">
-        <v>8.793466566962161</v>
+        <v>8.793466566961973</v>
       </c>
       <c r="M28" t="n">
-        <v>8.793466566962161</v>
+        <v>8.793466566961973</v>
       </c>
       <c r="N28" t="n">
-        <v>8.793466566962161</v>
+        <v>8.793466566961973</v>
       </c>
       <c r="O28" t="n">
-        <v>8.793466566962161</v>
+        <v>8.793466566961973</v>
       </c>
       <c r="P28" t="n">
-        <v>8.793466566962161</v>
+        <v>8.793466566961973</v>
       </c>
       <c r="Q28" t="n">
-        <v>8.793466566962161</v>
+        <v>8.793466566961973</v>
       </c>
       <c r="R28" t="n">
-        <v>8.793466566962161</v>
+        <v>8.793466566961973</v>
       </c>
       <c r="S28" t="n">
-        <v>8.793466566962161</v>
+        <v>8.793466566961973</v>
       </c>
       <c r="T28" t="n">
-        <v>8.793466566962161</v>
+        <v>8.793466566961973</v>
       </c>
       <c r="U28" t="n">
-        <v>8.793466566962161</v>
+        <v>8.793466566961973</v>
       </c>
       <c r="V28" t="n">
-        <v>8.793466566962161</v>
+        <v>8.793466566961973</v>
       </c>
       <c r="W28" t="n">
-        <v>8.793466566962161</v>
+        <v>8.793466566961973</v>
       </c>
       <c r="X28" t="n">
-        <v>8.793466566962161</v>
+        <v>8.793466566961973</v>
       </c>
       <c r="Y28" t="n">
-        <v>8.793466566962161</v>
+        <v>8.793466566961973</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="32">
@@ -29764,7 +29764,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="35">
@@ -29986,7 +29986,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203976</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="41">
@@ -30511,7 +30511,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
   </sheetData>
@@ -31838,7 +31838,7 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
@@ -31850,16 +31850,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>551.7051287319853</v>
+        <v>370.9642309107746</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32072,7 +32072,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32084,19 +32084,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>639.4703354763103</v>
+        <v>359.7096985496635</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>405.6377363145776</v>
       </c>
       <c r="O18" t="n">
-        <v>271.1474903386687</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32546,19 +32546,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>170.9292585737929</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>302.967544750805</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
@@ -32789,28 +32789,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>403.8524967138027</v>
       </c>
       <c r="O24" t="n">
-        <v>699.0496615458086</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,34 +33014,34 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>461.1007071927452</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33050,13 +33050,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33187,7 +33187,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M29" t="n">
         <v>965.6463440175675</v>
@@ -33260,31 +33260,31 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>204.3779992811859</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>574.2721069128561</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33494,13 +33494,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>172.7144981745678</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33509,19 +33509,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33646,37 +33646,37 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043725</v>
@@ -33685,10 +33685,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33734,37 +33734,37 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982898</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>268.5330199802463</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U36" t="n">
         <v>0.1935814387275954</v>
@@ -33810,28 +33810,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N37" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q37" t="n">
         <v>206.5643005515927</v>
@@ -33840,7 +33840,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33916,7 +33916,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -33968,34 +33968,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>233.9389431948335</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34220,19 +34220,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>191.332301678856</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34369,7 +34369,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L44" t="n">
         <v>867.846407116256</v>
@@ -34381,7 +34381,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
         <v>790.8204499236507</v>
@@ -34442,10 +34442,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
@@ -34454,22 +34454,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>172.8142548092792</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
@@ -35498,16 +35498,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>409.1088842875408</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35732,19 +35732,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>508.128623392977</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295076</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="O18" t="n">
-        <v>128.5512458942243</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36194,19 +36194,19 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>44.09163190712619</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>160.8335108287866</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
@@ -36437,28 +36437,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>272.5107846304694</v>
       </c>
       <c r="O24" t="n">
-        <v>556.4534171013642</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,28 +36668,28 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>318.5044627483008</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>89.83994982991558</v>
+        <v>89.83994982991533</v>
       </c>
       <c r="K28" t="n">
-        <v>273.1260549765972</v>
+        <v>273.1260549765969</v>
       </c>
       <c r="L28" t="n">
-        <v>403.1354808860937</v>
+        <v>403.1354808860934</v>
       </c>
       <c r="M28" t="n">
-        <v>435.0658935680073</v>
+        <v>435.0658935680071</v>
       </c>
       <c r="N28" t="n">
-        <v>430.4195995568696</v>
+        <v>430.4195995568694</v>
       </c>
       <c r="O28" t="n">
-        <v>382.0553662730076</v>
+        <v>382.0553662730074</v>
       </c>
       <c r="P28" t="n">
-        <v>304.4252398735871</v>
+        <v>304.4252398735869</v>
       </c>
       <c r="Q28" t="n">
-        <v>129.1957238668605</v>
+        <v>129.1957238668603</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36835,7 +36835,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M29" t="n">
         <v>735.3001107902948</v>
@@ -36908,31 +36908,31 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>77.54037261451921</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>431.6758624684117</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36990,10 +36990,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M31" t="n">
         <v>450.5570744930848</v>
@@ -37142,13 +37142,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>45.87687150790109</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37157,19 +37157,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,13 +37224,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
         <v>450.5570744930848</v>
@@ -37245,7 +37245,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,31 +37300,31 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>302.0934576762715</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>128.5512458942248</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
         <v>288.6172359016746</v>
@@ -37482,7 +37482,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37564,7 +37564,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>91.80490927281522</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37719,7 +37719,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37868,19 +37868,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>59.99058959552271</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37956,7 +37956,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,7 +38017,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
@@ -38029,7 +38029,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
@@ -38090,10 +38090,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
@@ -38102,22 +38102,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>27.13475084531527</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
